--- a/2-working-with-multiple-groups/outliers-solution.xlsx
+++ b/2-working-with-multiple-groups/outliers-solution.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\olt-intermediate-stats\2-working-with-multiple-groups\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F36A01EC-FC5D-40D6-B7E2-69AFA0C5D9FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC22178A-57F0-4C1D-BD81-42C40CF2AC6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25693" yWindow="-93" windowWidth="25786" windowHeight="13373" xr2:uid="{5437F79E-3492-4EDD-AF05-D18D712E87D4}"/>
   </bookViews>
@@ -21,6 +21,10 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$D$400</definedName>
     <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$B$2</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$3:$B$400</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$2</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$3:$B$400</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$B$2</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$B$3:$B$400</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1194,7 +1198,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1232,7 +1236,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{BAC180E2-AB79-41FE-A5B0-1939CAE8BEE6}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.4</cx:f>
               <cx:v>acceleration</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1861,8 +1865,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4603748" y="1991782"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="7114115" y="1820333"/>
+              <a:ext cx="4572000" cy="2550582"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2197,7 +2201,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -8271,7 +8275,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:D400" xr:uid="{450B66DE-6D30-46F3-8220-F867EF698866}">
+  <autoFilter ref="A2:D400" xr:uid="{EF329BD5-BEF3-447A-A1CE-B7F5D8F5BFF8}">
     <filterColumn colId="3">
       <filters>
         <filter val="FALSE"/>
